--- a/input_data/admin_data/URY/gpinter_URY_2014.xlsx
+++ b/input_data/admin_data/URY/gpinter_URY_2014.xlsx
@@ -2100,10 +2100,10 @@
         <v>2725.1213413555638</v>
       </c>
       <c r="D48">
-        <v>0.36453658395344118</v>
+        <v>0.36450762949879839</v>
       </c>
       <c r="E48">
-        <v>0.63546341604655876</v>
+        <v>0.63549237050120166</v>
       </c>
       <c r="F48">
         <v>0.57390624547586644</v>
@@ -2150,10 +2150,10 @@
         <v>9698.2058096491164</v>
       </c>
       <c r="D49">
-        <v>0.388771462489504</v>
+        <v>0.38880041694414691</v>
       </c>
       <c r="E49">
-        <v>0.611228537510496</v>
+        <v>0.6111995830558532</v>
       </c>
       <c r="F49">
         <v>0.56258505371051337</v>
@@ -2306,10 +2306,10 @@
         <v>0.61056258505371053</v>
       </c>
       <c r="F52">
-        <v>0.50319946723803455</v>
+        <v>0.50317051278339175</v>
       </c>
       <c r="G52">
-        <v>0.29067377015953899</v>
+        <v>0.2907027246141819</v>
       </c>
       <c r="H52">
         <v>0.17639053768422269</v>
@@ -2356,10 +2356,10 @@
         <v>0.59993630019978572</v>
       </c>
       <c r="F53">
-        <v>0.50589223151981932</v>
+        <v>0.50592118597446212</v>
       </c>
       <c r="G53">
-        <v>0.28027912094275698</v>
+        <v>0.28025016648811418</v>
       </c>
       <c r="H53">
         <v>0.18577178098850511</v>
@@ -2550,19 +2550,19 @@
         <v>79763.661707167877</v>
       </c>
       <c r="D57">
-        <v>0.41808547602501739</v>
+        <v>0.41843293954134808</v>
       </c>
       <c r="E57">
-        <v>0.58191452397498256</v>
+        <v>0.58156706045865181</v>
       </c>
       <c r="F57">
-        <v>0.37332059300440118</v>
+        <v>0.37355223534862181</v>
       </c>
       <c r="G57">
-        <v>0.24681491776696779</v>
+        <v>0.24745193421357431</v>
       </c>
       <c r="H57">
-        <v>0.36463400509613159</v>
+        <v>0.3637653463053046</v>
       </c>
       <c r="I57">
         <v>0.015230484132499399</v>
@@ -2600,22 +2600,22 @@
         <v>82964.586104888091</v>
       </c>
       <c r="D58">
-        <v>0.38380913776130637</v>
+        <v>0.38323006543517291</v>
       </c>
       <c r="E58">
-        <v>0.61619086223869357</v>
+        <v>0.6167699345648272</v>
       </c>
       <c r="F58">
-        <v>0.1735479761422202</v>
+        <v>0.17380855868898029</v>
       </c>
       <c r="G58">
-        <v>0.20004053506282929</v>
+        <v>0.19818750361920201</v>
       </c>
       <c r="H58">
-        <v>0.62311077653598934</v>
+        <v>0.62467427181654989</v>
       </c>
       <c r="I58">
-        <v>0.0033007122589610999</v>
+        <v>0.0033296658752678</v>
       </c>
       <c r="J58">
         <v>0.12746569187921569</v>
@@ -2650,31 +2650,31 @@
         <v>83874</v>
       </c>
       <c r="D59">
-        <v>0.32464674542506372</v>
+        <v>0.32206972434561038</v>
       </c>
       <c r="E59">
-        <v>0.67535325457493633</v>
+        <v>0.67793027565438968</v>
       </c>
       <c r="F59">
-        <v>0.0031561269400046002</v>
+        <v>0.0029244845957841002</v>
       </c>
       <c r="G59">
-        <v>0.032748436414176497</v>
+        <v>0.032574704656011103</v>
       </c>
       <c r="H59">
-        <v>0.9639217048876535</v>
+        <v>0.96432707899003933</v>
       </c>
       <c r="I59">
         <v>0.0001737317581654</v>
       </c>
       <c r="J59">
-        <v>8.6865879082700001e-05</v>
+        <v>2.8955293027600001e-05</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>0.99991313412091731</v>
+        <v>0.9999710447069724</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -2700,31 +2700,31 @@
         <v>84152.952449320655</v>
       </c>
       <c r="D60">
-        <v>0.41497524394128038</v>
+        <v>0.41830500622520772</v>
       </c>
       <c r="E60">
-        <v>0.58502475605871962</v>
+        <v>0.58169499377479228</v>
       </c>
       <c r="F60">
-        <v>0.1811390682456496</v>
+        <v>0.18139965833743521</v>
       </c>
       <c r="G60">
-        <v>0.20766134869849731</v>
+        <v>0.20919593479456811</v>
       </c>
       <c r="H60">
-        <v>0.60986767814228215</v>
+        <v>0.60810145640906854</v>
       </c>
       <c r="I60">
-        <v>0.001331904913571</v>
+        <v>0.0013029504589280999</v>
       </c>
       <c r="J60">
-        <v>0.040497237463786501</v>
+        <v>0.040583996623773398</v>
       </c>
       <c r="K60">
         <v>0.0013405105624715999</v>
       </c>
       <c r="L60">
-        <v>0.95664876969227253</v>
+        <v>0.95656201053228562</v>
       </c>
       <c r="M60">
         <v>0.0015134822770906001</v>
@@ -2750,31 +2750,31 @@
         <v>85958.45723291325</v>
       </c>
       <c r="D61">
-        <v>0.45391898543590931</v>
+        <v>0.45336885079769518</v>
       </c>
       <c r="E61">
-        <v>0.54608101456409064</v>
+        <v>0.54663114920230482</v>
       </c>
       <c r="F61">
-        <v>0.36876393433129689</v>
+        <v>0.36824275414772561</v>
       </c>
       <c r="G61">
-        <v>0.29267162752989551</v>
+        <v>0.29238208298346702</v>
       </c>
       <c r="H61">
-        <v>0.32886469583345401</v>
+        <v>0.32970437501809652</v>
       </c>
       <c r="I61">
-        <v>0.0096997423053536997</v>
+        <v>0.0096707878507108005</v>
       </c>
       <c r="J61">
-        <v>0.36964400534299507</v>
+        <v>0.36958550794119238</v>
       </c>
       <c r="K61">
         <v>0.010103332952111301</v>
       </c>
       <c r="L61">
-        <v>0.60859460017553213</v>
+        <v>0.60865309757733477</v>
       </c>
       <c r="M61">
         <v>0.011658061542660801</v>
@@ -2800,31 +2800,31 @@
         <v>91156.910094382474</v>
       </c>
       <c r="D62">
-        <v>0.39528621478414461</v>
+        <v>0.3953151692387874</v>
       </c>
       <c r="E62">
-        <v>0.6047137852158555</v>
+        <v>0.6046848307612126</v>
       </c>
       <c r="F62">
         <v>0.26533862234704808</v>
       </c>
       <c r="G62">
-        <v>0.18151547615600661</v>
+        <v>0.18166024842922079</v>
       </c>
       <c r="H62">
-        <v>0.5426933433708776</v>
+        <v>0.54251961664302051</v>
       </c>
       <c r="I62">
-        <v>0.0104525581260677</v>
+        <v>0.010481512580710501</v>
       </c>
       <c r="J62">
-        <v>0.39951313048668768</v>
+        <v>0.39954148114930799</v>
       </c>
       <c r="K62">
         <v>0.010263368132487899</v>
       </c>
       <c r="L62">
-        <v>0.57740811230280342</v>
+        <v>0.57737976164018301</v>
       </c>
       <c r="M62">
         <v>0.0128153891015934</v>
@@ -2900,10 +2900,10 @@
         <v>103429.239530024</v>
       </c>
       <c r="D64">
-        <v>0.52219358948374206</v>
+        <v>0.52222254393838496</v>
       </c>
       <c r="E64">
-        <v>0.47780641051625788</v>
+        <v>0.47777745606161498</v>
       </c>
       <c r="F64">
         <v>0.078292845354257706</v>
@@ -2950,10 +2950,10 @@
         <v>107356.7473565488</v>
       </c>
       <c r="D65">
-        <v>0.4723340185887599</v>
+        <v>0.47230506413411699</v>
       </c>
       <c r="E65">
-        <v>0.5276659814112401</v>
+        <v>0.5276949358658829</v>
       </c>
       <c r="F65">
         <v>0.35011726554130351</v>
@@ -3009,22 +3009,22 @@
         <v>0.35587920201522999</v>
       </c>
       <c r="G66">
-        <v>0.2325332252367027</v>
+        <v>0.23250427078205979</v>
       </c>
       <c r="H66">
-        <v>0.39841329588557201</v>
+        <v>0.39844225034021491</v>
       </c>
       <c r="I66">
         <v>0.0131742768624953</v>
       </c>
       <c r="J66">
-        <v>0.55461657167821821</v>
+        <v>0.55458669807475403</v>
       </c>
       <c r="K66">
         <v>0.014358411459260201</v>
       </c>
       <c r="L66">
-        <v>0.41418818477915859</v>
+        <v>0.41421805838262271</v>
       </c>
       <c r="M66">
         <v>0.016836832079407199</v>
@@ -3056,10 +3056,10 @@
         <v>0.57164779801372445</v>
       </c>
       <c r="F67">
-        <v>0.32547702464024092</v>
+        <v>0.32544807018559813</v>
       </c>
       <c r="G67">
-        <v>0.1998726003995715</v>
+        <v>0.19990155485421429</v>
       </c>
       <c r="H67">
         <v>0.46341604655876312</v>
@@ -3068,13 +3068,13 @@
         <v>0.0112343284014246</v>
       </c>
       <c r="J67">
-        <v>0.503338549357079</v>
+        <v>0.50333707888531487</v>
       </c>
       <c r="K67">
         <v>0.012107525445913699</v>
       </c>
       <c r="L67">
-        <v>0.47015963423905172</v>
+        <v>0.47016110471081579</v>
       </c>
       <c r="M67">
         <v>0.014394290949730699</v>
@@ -3100,10 +3100,10 @@
         <v>127589.3869795739</v>
       </c>
       <c r="D68">
-        <v>0.47011813759555249</v>
+        <v>0.47008918230252489</v>
       </c>
       <c r="E68">
-        <v>0.52988186240444746</v>
+        <v>0.52991081769747517</v>
       </c>
       <c r="F68">
         <v>0.37549223998146858</v>
@@ -3118,13 +3118,13 @@
         <v>0.0119874913134121</v>
       </c>
       <c r="J68">
-        <v>0.5758101165471593</v>
+        <v>0.57583826747262912</v>
       </c>
       <c r="K68">
         <v>0.0135843768747443</v>
       </c>
       <c r="L68">
-        <v>0.39471186879365289</v>
+        <v>0.39468371786818313</v>
       </c>
       <c r="M68">
         <v>0.015893637791027</v>
@@ -3150,19 +3150,19 @@
         <v>134784.87055322909</v>
       </c>
       <c r="D69">
-        <v>0.44659350841126899</v>
+        <v>0.4466224628659119</v>
       </c>
       <c r="E69">
-        <v>0.5534064915887309</v>
+        <v>0.5533775371340881</v>
       </c>
       <c r="F69">
-        <v>0.38445724874771992</v>
+        <v>0.38448620320236271</v>
       </c>
       <c r="G69">
         <v>0.22390479775313429</v>
       </c>
       <c r="H69">
-        <v>0.37962185482236438</v>
+        <v>0.37959290036772159</v>
       </c>
       <c r="I69">
         <v>0.012016098676781399</v>
@@ -3356,25 +3356,25 @@
         <v>0.53076410805802476</v>
       </c>
       <c r="F73">
-        <v>0.40793931146306861</v>
+        <v>0.40791035700842582</v>
       </c>
       <c r="G73">
         <v>0.250050670295625</v>
       </c>
       <c r="H73">
-        <v>0.33144164229666728</v>
+        <v>0.33147059675131019</v>
       </c>
       <c r="I73">
         <v>0.010568375944639099</v>
       </c>
       <c r="J73">
-        <v>0.64752395274666763</v>
+        <v>0.64751513641264169</v>
       </c>
       <c r="K73">
         <v>0.015518548820136599</v>
       </c>
       <c r="L73">
-        <v>0.31636047552097718</v>
+        <v>0.31636929185500312</v>
       </c>
       <c r="M73">
         <v>0.020597022940398502</v>
@@ -3406,25 +3406,25 @@
         <v>0.52167240930017078</v>
       </c>
       <c r="F74">
-        <v>0.40704172336914041</v>
+        <v>0.4070706778237832</v>
       </c>
       <c r="G74">
         <v>0.24611286446419781</v>
       </c>
       <c r="H74">
-        <v>0.33711671540666532</v>
+        <v>0.33708776095202247</v>
       </c>
       <c r="I74">
         <v>0.0097286967599965</v>
       </c>
       <c r="J74">
-        <v>0.64217483169564793</v>
+        <v>0.64218324223422552</v>
       </c>
       <c r="K74">
         <v>0.015992756017773599</v>
       </c>
       <c r="L74">
-        <v>0.32138102536560792</v>
+        <v>0.32137261482703028</v>
       </c>
       <c r="M74">
         <v>0.0204513867560558</v>
@@ -3450,10 +3450,10 @@
         <v>181126.62832885739</v>
       </c>
       <c r="D75">
-        <v>0.47412919477661641</v>
+        <v>0.47410024032197351</v>
       </c>
       <c r="E75">
-        <v>0.52587080522338359</v>
+        <v>0.52589975967802649</v>
       </c>
       <c r="F75">
         <v>0.40985030546949652</v>
@@ -3500,10 +3500,10 @@
         <v>190053.6160177853</v>
       </c>
       <c r="D76">
-        <v>0.48990937255696793</v>
+        <v>0.48993832701161072</v>
       </c>
       <c r="E76">
-        <v>0.51009062744303213</v>
+        <v>0.51006167298838934</v>
       </c>
       <c r="F76">
         <v>0.42328517242377739</v>
@@ -3550,16 +3550,16 @@
         <v>199532.21130870521</v>
       </c>
       <c r="D77">
-        <v>0.49795871094767929</v>
+        <v>0.49801661985696499</v>
       </c>
       <c r="E77">
-        <v>0.50204128905232071</v>
+        <v>0.50198338014303501</v>
       </c>
       <c r="F77">
-        <v>0.43440368300663063</v>
+        <v>0.43443263746127342</v>
       </c>
       <c r="G77">
-        <v>0.25801314532240788</v>
+        <v>0.25798419086776497</v>
       </c>
       <c r="H77">
         <v>0.29704375018096529</v>
@@ -3600,10 +3600,10 @@
         <v>209554.28942148999</v>
       </c>
       <c r="D78">
-        <v>0.50070938413874977</v>
+        <v>0.50068042968410686</v>
       </c>
       <c r="E78">
-        <v>0.49929061586125018</v>
+        <v>0.49931957031589308</v>
       </c>
       <c r="F78">
         <v>0.43651735819555842</v>
@@ -3656,10 +3656,10 @@
         <v>0.50102788313982105</v>
       </c>
       <c r="F79">
-        <v>0.43648840374091552</v>
+        <v>0.43643049483162982</v>
       </c>
       <c r="G79">
-        <v>0.27046356081883199</v>
+        <v>0.27052146972811769</v>
       </c>
       <c r="H79">
         <v>0.28407215450097001</v>
@@ -3700,16 +3700,16 @@
         <v>231029.4959996453</v>
       </c>
       <c r="D80">
-        <v>0.51117674310864025</v>
+        <v>0.51114778781561265</v>
       </c>
       <c r="E80">
-        <v>0.48882325689135969</v>
+        <v>0.48885221218438729</v>
       </c>
       <c r="F80">
-        <v>0.43667477414871442</v>
+        <v>0.43670372944174202</v>
       </c>
       <c r="G80">
-        <v>0.27533588139911969</v>
+        <v>0.2753069261060922</v>
       </c>
       <c r="H80">
         <v>0.27849200833912441</v>
@@ -3750,16 +3750,16 @@
         <v>242232.76384972999</v>
       </c>
       <c r="D81">
-        <v>0.51443379563945912</v>
+        <v>0.51446275009410203</v>
       </c>
       <c r="E81">
-        <v>0.48556620436054088</v>
+        <v>0.48553724990589803</v>
       </c>
       <c r="F81">
-        <v>0.43341923154877382</v>
+        <v>0.43344818600341661</v>
       </c>
       <c r="G81">
-        <v>0.28352201986275588</v>
+        <v>0.28349306540811298</v>
       </c>
       <c r="H81">
         <v>0.2746330022874019</v>
@@ -3800,16 +3800,16 @@
         <v>253790.46760222729</v>
       </c>
       <c r="D82">
-        <v>0.5213539102990995</v>
+        <v>0.52132495584445671</v>
       </c>
       <c r="E82">
-        <v>0.4786460897009005</v>
+        <v>0.47867504415554329</v>
       </c>
       <c r="F82">
-        <v>0.43614095028520139</v>
+        <v>0.43611199583055849</v>
       </c>
       <c r="G82">
-        <v>0.28027912094275698</v>
+        <v>0.28030807539739988</v>
       </c>
       <c r="H82">
         <v>0.27483568346990178</v>
@@ -3900,16 +3900,16 @@
         <v>277995.80132991431</v>
       </c>
       <c r="D84">
-        <v>0.54353302255552016</v>
+        <v>0.54350406810087737</v>
       </c>
       <c r="E84">
-        <v>0.45646697744447978</v>
+        <v>0.45649593189912258</v>
       </c>
       <c r="F84">
-        <v>0.43935489475055739</v>
+        <v>0.43932594029591449</v>
       </c>
       <c r="G84">
-        <v>0.28230593276775628</v>
+        <v>0.28233488722239919</v>
       </c>
       <c r="H84">
         <v>0.2713321944581174</v>
@@ -3918,13 +3918,13 @@
         <v>0.0070069780235688999</v>
       </c>
       <c r="J84">
-        <v>0.7139662871866993</v>
+        <v>0.71396093407293393</v>
       </c>
       <c r="K84">
         <v>0.022477865479997201</v>
       </c>
       <c r="L84">
-        <v>0.24404348653048491</v>
+        <v>0.24404883964425031</v>
       </c>
       <c r="M84">
         <v>0.0195123607962801</v>
@@ -3950,16 +3950,16 @@
         <v>290417.38914967998</v>
       </c>
       <c r="D85">
-        <v>0.54000057908909282</v>
+        <v>0.54002953354373573</v>
       </c>
       <c r="E85">
-        <v>0.45999942091090718</v>
+        <v>0.45997046645626433</v>
       </c>
       <c r="F85">
-        <v>0.41940527550163592</v>
+        <v>0.41943422995627883</v>
       </c>
       <c r="G85">
-        <v>0.29631988881489418</v>
+        <v>0.29629093436025128</v>
       </c>
       <c r="H85">
         <v>0.27674667747632969</v>
@@ -3968,13 +3968,13 @@
         <v>0.0075281582071402</v>
       </c>
       <c r="J85">
-        <v>0.70500907491943376</v>
+        <v>0.70501419907248519</v>
       </c>
       <c r="K85">
         <v>0.0253440245785682</v>
       </c>
       <c r="L85">
-        <v>0.24997497750467321</v>
+        <v>0.24996985335162161</v>
       </c>
       <c r="M85">
         <v>0.019671923035069299</v>
